--- a/input/worklist.xlsx
+++ b/input/worklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c1829094dbd390/Desktop/Kelly_Lab/.venv/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c1829094dbd390/Desktop/Kelly_Lab/.venv/worklist_git/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{9FF31816-5E18-4C57-854D-BFCECDF7EDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{816EEA7C-6865-4DAA-B9DA-D4293692431C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F9C7BB99-412F-4C31-981D-261576396FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45E489AA-8EF3-4775-A398-B936C345288F}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{BF50EA0A-2797-EC49-8565-645DB7B38C61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BF50EA0A-2797-EC49-8565-645DB7B38C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="96">
   <si>
     <t>Notebook code:</t>
   </si>
@@ -318,6 +318,12 @@
   </si>
   <si>
     <t>SV2</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Between</t>
   </si>
 </sst>
 </file>
@@ -536,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -603,6 +609,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -967,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79332BF3-487A-D048-AE38-CBE359952258}">
   <dimension ref="A1:AS58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M21" zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AD33" sqref="AD33:AE44"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AE44" sqref="AE44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -1039,9 +1047,15 @@
       <c r="AP1" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
+      <c r="AQ1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR1" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS1" s="28" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
@@ -1089,6 +1103,9 @@
       <c r="AP2" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A3" s="16" t="s">
@@ -1135,6 +1152,15 @@
       </c>
       <c r="AP3" s="15" t="s">
         <v>62</v>
+      </c>
+      <c r="AQ3" s="27">
+        <v>10</v>
+      </c>
+      <c r="AR3" s="34">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="34">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.4">
@@ -1204,6 +1230,15 @@
       <c r="AP4" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="AQ4" s="27">
+        <v>10</v>
+      </c>
+      <c r="AR4" s="34">
+        <v>10</v>
+      </c>
+      <c r="AS4" s="34">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
@@ -1326,6 +1361,9 @@
       <c r="AP5" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
@@ -1402,6 +1440,9 @@
       <c r="AP6" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="34"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
@@ -1446,6 +1487,9 @@
       <c r="AN7" s="20"/>
       <c r="AO7" s="26"/>
       <c r="AP7" s="15"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="34"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
@@ -1554,6 +1598,15 @@
       <c r="AP8" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="AQ8" s="27">
+        <v>5</v>
+      </c>
+      <c r="AR8" s="34">
+        <v>5</v>
+      </c>
+      <c r="AS8" s="34">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
@@ -1662,6 +1715,15 @@
       <c r="AP9" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="AQ9" s="27">
+        <v>5</v>
+      </c>
+      <c r="AR9" s="34">
+        <v>5</v>
+      </c>
+      <c r="AS9" s="34">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
@@ -1770,6 +1832,9 @@
       <c r="AP10" s="27" t="s">
         <v>62</v>
       </c>
+      <c r="AQ10" s="27"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
@@ -1848,6 +1913,9 @@
       <c r="AP11" s="27" t="s">
         <v>62</v>
       </c>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
@@ -1956,6 +2024,9 @@
       <c r="AP12" s="27" t="s">
         <v>62</v>
       </c>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="34"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
@@ -2024,6 +2095,9 @@
       <c r="AP13" s="27" t="s">
         <v>62</v>
       </c>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="34"/>
+      <c r="AS13" s="34"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
@@ -2068,6 +2142,9 @@
       <c r="AN14" s="8"/>
       <c r="AO14" s="26"/>
       <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="34"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
@@ -2112,6 +2189,9 @@
       <c r="AN15" s="8"/>
       <c r="AO15" s="26"/>
       <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
@@ -2160,8 +2240,11 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="26"/>
       <c r="AP16" s="27"/>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="34"/>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>40</v>
       </c>
@@ -2204,8 +2287,11 @@
       <c r="AN17" s="8"/>
       <c r="AO17" s="26"/>
       <c r="AP17" s="27"/>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>41</v>
       </c>
@@ -2248,8 +2334,11 @@
       <c r="AN18" s="8"/>
       <c r="AO18" s="26"/>
       <c r="AP18" s="27"/>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>42</v>
       </c>
@@ -2292,8 +2381,11 @@
       <c r="AN19" s="8"/>
       <c r="AO19" s="26"/>
       <c r="AP19" s="27"/>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="34"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
         <v>43</v>
       </c>
@@ -2336,8 +2428,11 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="26"/>
       <c r="AP20" s="27"/>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="34"/>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>44</v>
       </c>
@@ -2380,8 +2475,11 @@
       <c r="AN21" s="8"/>
       <c r="AO21" s="26"/>
       <c r="AP21" s="27"/>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="34"/>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
@@ -2424,8 +2522,11 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="26"/>
       <c r="AP22" s="27"/>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="34"/>
+      <c r="AS22" s="34"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A23" s="15" t="s">
         <v>24</v>
       </c>
@@ -2522,8 +2623,11 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="26"/>
       <c r="AP23" s="27"/>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="34"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.4">
       <c r="A24" s="21" t="s">
         <v>30</v>
       </c>
@@ -2572,8 +2676,11 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="26"/>
       <c r="AP24" s="27"/>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ24" s="27"/>
+      <c r="AR24" s="34"/>
+      <c r="AS24" s="34"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
         <v>30</v>
       </c>
@@ -2616,8 +2723,11 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="26"/>
       <c r="AP25" s="27"/>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ25" s="27"/>
+      <c r="AR25" s="34"/>
+      <c r="AS25" s="34"/>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D26" t="s">
         <v>31</v>
       </c>
@@ -2700,8 +2810,11 @@
       <c r="AN26" s="8"/>
       <c r="AO26" s="26"/>
       <c r="AP26" s="27"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ26" s="27"/>
+      <c r="AR26" s="34"/>
+      <c r="AS26" s="34"/>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D27" t="s">
         <v>32</v>
       </c>
@@ -2784,8 +2897,11 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="26"/>
       <c r="AP27" s="27"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ27" s="27"/>
+      <c r="AR27" s="34"/>
+      <c r="AS27" s="34"/>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
         <v>33</v>
       </c>
@@ -2868,8 +2984,11 @@
       <c r="AN28" s="8"/>
       <c r="AO28" s="26"/>
       <c r="AP28" s="27"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="34"/>
+      <c r="AS28" s="34"/>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
         <v>34</v>
       </c>
@@ -2912,8 +3031,11 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="26"/>
       <c r="AP29" s="27"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ29" s="27"/>
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="34"/>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
         <v>35</v>
       </c>
@@ -2996,8 +3118,11 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="26"/>
       <c r="AP30" s="27"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="34"/>
+      <c r="AS30" s="34"/>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>36</v>
       </c>
@@ -3064,8 +3189,17 @@
       <c r="AP31" s="28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ31" s="28">
+        <v>10</v>
+      </c>
+      <c r="AR31" s="35">
+        <v>10</v>
+      </c>
+      <c r="AS31" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
         <v>37</v>
       </c>
@@ -3128,10 +3262,10 @@
       <c r="AE33" s="5">
         <v>10</v>
       </c>
-      <c r="AF33" s="36" t="s">
+      <c r="AF33" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AG33" s="34"/>
+      <c r="AG33" s="36"/>
       <c r="AH33" s="16" t="s">
         <v>64</v>
       </c>
@@ -3144,10 +3278,10 @@
       <c r="AL33" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AM33" s="41" t="s">
+      <c r="AM33" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="AN33" s="41"/>
+      <c r="AN33" s="43"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
@@ -3183,8 +3317,8 @@
       <c r="AE34" s="5">
         <v>10</v>
       </c>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="34"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="36"/>
       <c r="AH34" s="16" t="s">
         <v>65</v>
       </c>
@@ -3195,8 +3329,8 @@
         <v>76</v>
       </c>
       <c r="AL34" s="30"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="41"/>
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="43"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
@@ -3232,22 +3366,22 @@
       <c r="AE35" s="5">
         <v>13</v>
       </c>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="35" t="s">
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="AI35" s="38">
+      <c r="AI35" s="40">
         <v>30</v>
       </c>
-      <c r="AK35" s="35" t="s">
+      <c r="AK35" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="AL35" s="38" t="s">
+      <c r="AL35" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
+      <c r="AM35" s="43"/>
+      <c r="AN35" s="43"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
@@ -3283,12 +3417,12 @@
       <c r="AE36" s="5">
         <v>0</v>
       </c>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="39"/>
-      <c r="AK36" s="37"/>
-      <c r="AL36" s="40"/>
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="38"/>
+      <c r="AI36" s="41"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="42"/>
     </row>
     <row r="37" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D37" t="s">
@@ -3324,10 +3458,10 @@
       <c r="AE37" s="5">
         <v>0</v>
       </c>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="40"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="42"/>
       <c r="AK37" s="32"/>
       <c r="AL37" s="33"/>
       <c r="AM37" s="32"/>
@@ -3367,15 +3501,15 @@
       <c r="AE38" s="22">
         <v>0</v>
       </c>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="34"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="36"/>
       <c r="AH38" s="16" t="s">
         <v>89</v>
       </c>
       <c r="AI38" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="AJ38" s="34" t="s">
+      <c r="AJ38" s="36" t="s">
         <v>90</v>
       </c>
       <c r="AK38" s="32"/>
@@ -3417,9 +3551,9 @@
       <c r="AE39" s="5">
         <v>10</v>
       </c>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="34"/>
-      <c r="AJ39" s="34"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="36"/>
+      <c r="AJ39" s="36"/>
       <c r="AK39" s="32"/>
       <c r="AL39" s="33"/>
       <c r="AM39" s="32"/>
@@ -3459,9 +3593,9 @@
       <c r="AE40" s="5">
         <v>10</v>
       </c>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="34"/>
-      <c r="AJ40" s="34"/>
+      <c r="AF40" s="38"/>
+      <c r="AG40" s="36"/>
+      <c r="AJ40" s="36"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A41" s="15" t="s">
@@ -3551,9 +3685,9 @@
       <c r="AE41" s="5">
         <v>20</v>
       </c>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="34"/>
-      <c r="AJ41" s="34"/>
+      <c r="AF41" s="38"/>
+      <c r="AG41" s="36"/>
+      <c r="AJ41" s="36"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A42" s="21" t="s">
@@ -3593,11 +3727,11 @@
         <v>57</v>
       </c>
       <c r="AE42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="34"/>
-      <c r="AJ42" s="34"/>
+        <v>10</v>
+      </c>
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="36"/>
+      <c r="AJ42" s="36"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D43" t="s">
@@ -3671,11 +3805,11 @@
         <v>58</v>
       </c>
       <c r="AE43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="36"/>
-      <c r="AG43" s="34"/>
-      <c r="AJ43" s="34"/>
+        <v>10</v>
+      </c>
+      <c r="AF43" s="38"/>
+      <c r="AG43" s="36"/>
+      <c r="AJ43" s="36"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
@@ -3749,10 +3883,10 @@
         <v>59</v>
       </c>
       <c r="AE44" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="36"/>
-      <c r="AG44" s="34"/>
+        <v>10</v>
+      </c>
+      <c r="AF44" s="38"/>
+      <c r="AG44" s="36"/>
     </row>
     <row r="45" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D45" t="s">
@@ -3822,10 +3956,10 @@
       </c>
       <c r="AA45" s="7"/>
       <c r="AB45" s="8"/>
-      <c r="AF45" s="34" t="s">
+      <c r="AF45" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AG45" s="34"/>
+      <c r="AG45" s="36"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
@@ -3896,8 +4030,8 @@
       <c r="AA46" s="7"/>
       <c r="AB46" s="8"/>
       <c r="AE46" s="7"/>
-      <c r="AF46" s="34"/>
-      <c r="AG46" s="34"/>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="36"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
@@ -3927,8 +4061,8 @@
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="8"/>
-      <c r="AF47" s="34"/>
-      <c r="AG47" s="34"/>
+      <c r="AF47" s="36"/>
+      <c r="AG47" s="36"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.4">
       <c r="D48" t="s">

--- a/input/worklist.xlsx
+++ b/input/worklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/01c1829094dbd390/Desktop/Kelly_Lab/.venv/worklist_git/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F9C7BB99-412F-4C31-981D-261576396FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45E489AA-8EF3-4775-A398-B936C345288F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{F9C7BB99-412F-4C31-981D-261576396FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB5BE718-4794-4234-B179-E6360489D17D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{BF50EA0A-2797-EC49-8565-645DB7B38C61}"/>
   </bookViews>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79332BF3-487A-D048-AE38-CBE359952258}">
   <dimension ref="A1:AS58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AE44" sqref="AE44"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
